--- a/outputs/MIAMI5.xlsx
+++ b/outputs/MIAMI5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly displays "Assignment 7" on the right side under the "Coming Up" section. This aligns with Abi's motivation to submit Assignment 7 and her comprehensive information processing style, as she would likely read through the page to find relevant information. The presence of "Assignment 7" directly indicates that this is a step toward achieving her overall use case.</t>
+Why: The page clearly shows "Assignment 7" on the right side under "Coming Up," which directly aligns with Abi's goal of finding Assignment 7. This is a straightforward step toward achieving the overall use case, and the information is prominently displayed, making it easy for Abi to identify and proceed.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Assignment 7" link is clearly labeled under the "Coming Up" section, making it straightforward for Abi to identify and click on it. This aligns with her motivation to submit Assignment 7 and her comprehensive information processing style, as she would likely read through the page to find relevant information. The page provides a clear indication of what the link is for, making it easy for Abi to take this action.</t>
+Why: The "Assignment 7" link is clearly labeled and prominently displayed under the "Coming Up" section. This makes it straightforward for Abi to understand that clicking this link is the next step toward finding Assignment 7. The page provides clear and direct information, aligning with Abi's comprehensive information processing style and motivation to complete the task.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides some information about Project 7, including a link to an external site and an option to load the assignment in a new window. However, the page is cluttered and not well-organized, which might overwhelm Abi. Additionally, the need to load the assignment in a new browser window or navigate to an external site could be confusing and intimidating for someone with low computer self-efficacy. Abi might not feel confident that she is making progress toward her goal or that she has all the information she needs.</t>
+Why: While Abi will know that she has landed on the Assignment 7 page, the page itself is cluttered and lacks clear instructions on how to proceed with submitting the assignment. The presence of multiple links and the instruction to load the assignment in a new browser window might confuse Abi, given her low computer self-efficacy and preference for comprehensive information. The page does not provide a straightforward path or clear next steps for submission, which could hinder Abi's progress toward her goal.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page provides a link to an external site (GitHub) without much context or explanation about what Abi should expect or do once she clicks the link. Given Abi's low computer self-efficacy and preference for process-oriented learning, she might feel uncertain about clicking the link without more information. Additionally, the page's cluttered layout and the presence of multiple options (e.g., loading the assignment in a new window) could be confusing and overwhelming, making it difficult for Abi to confidently take this action.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page instructs Abi to click on a GitHub link, but it does not provide clear information on what to expect after clicking the link or how it relates to submitting Assignment 7. Given Abi's low computer self-efficacy, she might be hesitant to click on an external link without understanding its purpose. Additionally, Abi prefers process-oriented learning and clear instructions, which are not provided here. This lack of guidance could make Abi unsure about taking this action.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to her assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with submitting the assignment. Given Abi's comprehensive information processing style and low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal and whether she has all the information she needs. The lack of clear, step-by-step instructions could leave her feeling confused and unsure about the next steps.</t>
+Why: After clicking the GitHub link, Abi lands on a page that confirms she has accepted the assignment and provides a link to the assignment repository. However, the page does not provide clear instructions on what to do next or how to proceed with submitting the assignment. Given Abi's preference for comprehensive information and her low computer self-efficacy, she might not feel confident that she is making progress toward her goal. The lack of clear next steps and detailed guidance could leave Abi uncertain about whether she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The homepage does not provide any direct indication or link to Gradescope for submitting assignments. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, with her low computer self-efficacy, she might not feel confident in figuring out this step on her own without clear guidance. The lack of explicit direction on this page makes it unlikely that Abi would think of going to Gradescope as a step toward achieving her goal.</t>
+Why: The page does not provide any information or indication that Gradescope is the platform to submit Assignment 7. Abi, who prefers comprehensive information and has low computer self-efficacy, would not have enough context or guidance from this page to think of going to Gradescope as a step toward submitting the assignment. The page focuses on modules, announcements, and other course-related links but does not mention Gradescope or submission instructions.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Assignment 7" link under the "Coming Up" section does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this link is the correct step toward submitting her assignment. Additionally, with her low computer self-efficacy, she might not feel confident in clicking the link without knowing exactly what it will do. The lack of explicit direction and context on this page makes it unlikely that Abi will know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide any indication that clicking on the "Assignment 7" link will lead Abi to Gradescope for submission. Given Abi's low computer self-efficacy and preference for clear, process-oriented instructions, she might not feel confident about what will happen after clicking the link. The page lacks explicit guidance or information about the submission process, which could make Abi hesitant to take this action.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about Project 7 and includes a link to an external site (GitHub). However, there is no mention of Gradescope or instructions on how to submit the assignment. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that she needs to go to Gradescope to submit her assignment. Additionally, with her low computer self-efficacy, she might feel uncertain about whether she is making progress toward her goal and whether she has all the information she needs. The lack of clear direction and context on this page makes it unlikely that Abi will know she is on the right track.</t>
+Why: After clicking the "Assignment 7" link, Abi lands on a page that provides information about the assignment and a link to GitHub, but it does not mention Gradescope or provide clear instructions on how to submit the assignment. Given Abi's preference for comprehensive information and her low computer self-efficacy, she might not feel confident that she is making progress toward her goal of submitting the assignment. The page lacks explicit guidance on the submission process, which could leave Abi uncertain about the next steps.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Load Assignment 7 in a new window" button does not provide any indication that it will lead Abi to Gradescope for submission. Given Abi's comprehensive information processing style, she would need clear and explicit instructions to understand that clicking this button is the correct step toward submitting her assignment. Additionally, with her low computer self-efficacy and preference for process-oriented learning, she might feel uncertain about clicking the button without knowing exactly what it will do. The lack of explicit direction and context on this page makes it unlikely that Abi will know what to do at this step.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page instructs Abi to "Load Assignment 7 in a new window," but it does not provide clear information on what will happen after clicking the button or how it relates to submitting the assignment on Gradescope. Given Abi's low computer self-efficacy and preference for clear, process-oriented instructions, she might not feel confident about taking this action. The lack of explicit guidance and context could make Abi hesitant to proceed, as she may not understand how this step fits into the overall process of submitting the assignment.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists all active assignments, including "Project 7." This page provides clear information about the assignment, including its due date and submission status. Given Abi's motivation to submit Assignment 7 and her comprehensive information processing style, she will recognize that she is on the right platform (Gradescope) and making progress toward her goal. The page is well-organized and provides the necessary information for her to proceed with the submission.</t>
+Why: After clicking "Load Assignment 7 in a new window," Abi lands on the Gradescope page, which lists "Project 7" along with its due date and submission status. This page provides clear information that aligns with Abi's goal of submitting Assignment 7. The presence of the assignment name, due date, and submission status will help Abi understand that she is on the right track and making progress toward her goal. The page is well-organized and provides the necessary information, which aligns with Abi's comprehensive information processing style.</t>
         </is>
       </c>
     </row>
